--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Agrn-Atp1a3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Agrn-Atp1a3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.306265</v>
+        <v>8.898150666666666</v>
       </c>
       <c r="H2">
-        <v>51.918795</v>
+        <v>26.694452</v>
       </c>
       <c r="I2">
-        <v>0.5463168539988408</v>
+        <v>0.3765197173862137</v>
       </c>
       <c r="J2">
-        <v>0.5463168539988407</v>
+        <v>0.3765197173862137</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>11.76781466666667</v>
+        <v>0.008424666666666667</v>
       </c>
       <c r="N2">
-        <v>35.303444</v>
+        <v>0.025274</v>
       </c>
       <c r="O2">
-        <v>0.9616440602480689</v>
+        <v>0.0215396310803394</v>
       </c>
       <c r="P2">
-        <v>0.9616440602480689</v>
+        <v>0.0215396310803394</v>
       </c>
       <c r="Q2">
-        <v>203.65691909222</v>
+        <v>0.07496395331644444</v>
       </c>
       <c r="R2">
-        <v>1832.91227182998</v>
+        <v>0.674675579848</v>
       </c>
       <c r="S2">
-        <v>0.5253623576613967</v>
+        <v>0.008110095806972696</v>
       </c>
       <c r="T2">
-        <v>0.5253623576613966</v>
+        <v>0.008110095806972696</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.306265</v>
+        <v>8.898150666666666</v>
       </c>
       <c r="H3">
-        <v>51.918795</v>
+        <v>26.694452</v>
       </c>
       <c r="I3">
-        <v>0.5463168539988408</v>
+        <v>0.3765197173862137</v>
       </c>
       <c r="J3">
-        <v>0.5463168539988407</v>
+        <v>0.3765197173862137</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.132024</v>
       </c>
       <c r="O3">
-        <v>0.03083563619623796</v>
+        <v>0.9647613885451503</v>
       </c>
       <c r="P3">
-        <v>0.03083563619623796</v>
+        <v>0.9647613885451503</v>
       </c>
       <c r="Q3">
-        <v>6.53036911012</v>
+        <v>3.357640036760889</v>
       </c>
       <c r="R3">
-        <v>58.77332199108</v>
+        <v>30.218760330848</v>
       </c>
       <c r="S3">
-        <v>0.0168460277577815</v>
+        <v>0.3632516853601511</v>
       </c>
       <c r="T3">
-        <v>0.0168460277577815</v>
+        <v>0.3632516853601511</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.306265</v>
+        <v>8.898150666666666</v>
       </c>
       <c r="H4">
-        <v>51.918795</v>
+        <v>26.694452</v>
       </c>
       <c r="I4">
-        <v>0.5463168539988408</v>
+        <v>0.3765197173862137</v>
       </c>
       <c r="J4">
-        <v>0.5463168539988407</v>
+        <v>0.3765197173862137</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.09202733333333335</v>
+        <v>0.005357999999999999</v>
       </c>
       <c r="N4">
-        <v>0.276082</v>
+        <v>0.016074</v>
       </c>
       <c r="O4">
-        <v>0.007520303555692964</v>
+        <v>0.01369898037451038</v>
       </c>
       <c r="P4">
-        <v>0.007520303555692964</v>
+        <v>0.01369898037451039</v>
       </c>
       <c r="Q4">
-        <v>1.59264941791</v>
+        <v>0.04767629127199999</v>
       </c>
       <c r="R4">
-        <v>14.33384476119</v>
+        <v>0.4290866214479999</v>
       </c>
       <c r="S4">
-        <v>0.004108468579662476</v>
+        <v>0.005157936219089938</v>
       </c>
       <c r="T4">
-        <v>0.004108468579662475</v>
+        <v>0.005157936219089938</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>10.03324</v>
       </c>
       <c r="I5">
-        <v>0.1055750256186672</v>
+        <v>0.1415167724465014</v>
       </c>
       <c r="J5">
-        <v>0.1055750256186672</v>
+        <v>0.1415167724465015</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>11.76781466666667</v>
+        <v>0.008424666666666667</v>
       </c>
       <c r="N5">
-        <v>35.303444</v>
+        <v>0.025274</v>
       </c>
       <c r="O5">
-        <v>0.9616440602480689</v>
+        <v>0.0215396310803394</v>
       </c>
       <c r="P5">
-        <v>0.9616440602480689</v>
+        <v>0.0215396310803394</v>
       </c>
       <c r="Q5">
-        <v>39.35643627539556</v>
+        <v>0.02817556752888889</v>
       </c>
       <c r="R5">
-        <v>354.20792647856</v>
+        <v>0.2535801077600001</v>
       </c>
       <c r="S5">
-        <v>0.101525596296729</v>
+        <v>0.003048219070177981</v>
       </c>
       <c r="T5">
-        <v>0.101525596296729</v>
+        <v>0.003048219070177981</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>10.03324</v>
       </c>
       <c r="I6">
-        <v>0.1055750256186672</v>
+        <v>0.1415167724465014</v>
       </c>
       <c r="J6">
-        <v>0.1055750256186672</v>
+        <v>0.1415167724465015</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.132024</v>
       </c>
       <c r="O6">
-        <v>0.03083563619623796</v>
+        <v>0.9647613885451503</v>
       </c>
       <c r="P6">
-        <v>0.03083563619623796</v>
+        <v>0.9647613885451503</v>
       </c>
       <c r="Q6">
         <v>1.261985386417778</v>
@@ -818,10 +818,10 @@
         <v>11.35786847776</v>
       </c>
       <c r="S6">
-        <v>0.003255473081385724</v>
+        <v>0.1365299178879148</v>
       </c>
       <c r="T6">
-        <v>0.003255473081385723</v>
+        <v>0.1365299178879148</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>10.03324</v>
       </c>
       <c r="I7">
-        <v>0.1055750256186672</v>
+        <v>0.1415167724465014</v>
       </c>
       <c r="J7">
-        <v>0.1055750256186672</v>
+        <v>0.1415167724465015</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -862,28 +862,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.09202733333333335</v>
+        <v>0.005357999999999999</v>
       </c>
       <c r="N7">
-        <v>0.276082</v>
+        <v>0.016074</v>
       </c>
       <c r="O7">
-        <v>0.007520303555692964</v>
+        <v>0.01369898037451038</v>
       </c>
       <c r="P7">
-        <v>0.007520303555692964</v>
+        <v>0.01369898037451039</v>
       </c>
       <c r="Q7">
-        <v>0.3077774406311112</v>
+        <v>0.01791936664</v>
       </c>
       <c r="R7">
-        <v>2.769996965680001</v>
+        <v>0.16127429976</v>
       </c>
       <c r="S7">
-        <v>0.0007939562405524385</v>
+        <v>0.001938635488408675</v>
       </c>
       <c r="T7">
-        <v>0.0007939562405524384</v>
+        <v>0.001938635488408676</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.02739433333333</v>
+        <v>11.39006466666667</v>
       </c>
       <c r="H8">
-        <v>33.082183</v>
+        <v>34.170194</v>
       </c>
       <c r="I8">
-        <v>0.3481081203824922</v>
+        <v>0.4819635101672848</v>
       </c>
       <c r="J8">
-        <v>0.3481081203824921</v>
+        <v>0.4819635101672848</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>11.76781466666667</v>
+        <v>0.008424666666666667</v>
       </c>
       <c r="N8">
-        <v>35.303444</v>
+        <v>0.025274</v>
       </c>
       <c r="O8">
-        <v>0.9616440602480689</v>
+        <v>0.0215396310803394</v>
       </c>
       <c r="P8">
-        <v>0.9616440602480689</v>
+        <v>0.0215396310803394</v>
       </c>
       <c r="Q8">
-        <v>129.7683327709169</v>
+        <v>0.09595749812844445</v>
       </c>
       <c r="R8">
-        <v>1167.914994938252</v>
+        <v>0.8636174831560001</v>
       </c>
       <c r="S8">
-        <v>0.3347561062899433</v>
+        <v>0.01038131620318872</v>
       </c>
       <c r="T8">
-        <v>0.3347561062899433</v>
+        <v>0.01038131620318872</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.02739433333333</v>
+        <v>11.39006466666667</v>
       </c>
       <c r="H9">
-        <v>33.082183</v>
+        <v>34.170194</v>
       </c>
       <c r="I9">
-        <v>0.3481081203824922</v>
+        <v>0.4819635101672848</v>
       </c>
       <c r="J9">
-        <v>0.3481081203824921</v>
+        <v>0.4819635101672848</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>1.132024</v>
       </c>
       <c r="O9">
-        <v>0.03083563619623796</v>
+        <v>0.9647613885451503</v>
       </c>
       <c r="P9">
-        <v>0.03083563619623796</v>
+        <v>0.9647613885451503</v>
       </c>
       <c r="Q9">
-        <v>4.161091680932445</v>
+        <v>4.297942188072889</v>
       </c>
       <c r="R9">
-        <v>37.449825128392</v>
+        <v>38.681479692656</v>
       </c>
       <c r="S9">
-        <v>0.01073413535707074</v>
+        <v>0.4649797852970843</v>
       </c>
       <c r="T9">
-        <v>0.01073413535707074</v>
+        <v>0.4649797852970843</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.02739433333333</v>
+        <v>11.39006466666667</v>
       </c>
       <c r="H10">
-        <v>33.082183</v>
+        <v>34.170194</v>
       </c>
       <c r="I10">
-        <v>0.3481081203824922</v>
+        <v>0.4819635101672848</v>
       </c>
       <c r="J10">
-        <v>0.3481081203824921</v>
+        <v>0.4819635101672848</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1048,28 +1048,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.09202733333333335</v>
+        <v>0.005357999999999999</v>
       </c>
       <c r="N10">
-        <v>0.276082</v>
+        <v>0.016074</v>
       </c>
       <c r="O10">
-        <v>0.007520303555692964</v>
+        <v>0.01369898037451038</v>
       </c>
       <c r="P10">
-        <v>0.007520303555692964</v>
+        <v>0.01369898037451039</v>
       </c>
       <c r="Q10">
-        <v>1.014821694111778</v>
+        <v>0.061027966484</v>
       </c>
       <c r="R10">
-        <v>9.133395247006002</v>
+        <v>0.549251698356</v>
       </c>
       <c r="S10">
-        <v>0.00261787873547805</v>
+        <v>0.00660240866701177</v>
       </c>
       <c r="T10">
-        <v>0.00261787873547805</v>
+        <v>0.006602408667011772</v>
       </c>
     </row>
   </sheetData>
